--- a/biology/Médecine/Smog_de_New_York_en_1966/Smog_de_New_York_en_1966.xlsx
+++ b/biology/Médecine/Smog_de_New_York_en_1966/Smog_de_New_York_en_1966.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le smog de New York en 1966 est un événement notable de pollution atmosphérique, avec des niveaux importants de monoxyde de carbone, de dioxyde de soufre, de fumée et de brume. Le smog couvre la ville de New York du 23 au 26 novembre, ce qui correspond au week-end de la fête de Thanksgiving. Il s'agit du troisième événement de smog majeur dans la ville, à la suite d'événements de même ampleur en 1953 et 1963.
 Le 23 novembre, une grande masse d'air stagnant au-dessus de la côte est des États-Unis piège des polluants dans l'air de la ville. Pendant trois jours, la ville de New York est submergée par des niveaux élevés de monoxyde de carbone, de dioxyde de soufre, de fumée et de brume. De plus petites poches de pollution atmosphérique envahissent le Grand New York, y compris certaines parties du New Jersey et du Connecticut. Le 25 novembre, les dirigeants régionaux annonçaient une « première alerte ». Au cours de celle-ci, ils demandent aux résidents et à l'industrie de prendre des mesures volontaires pour réduire les émissions au minimum. Les responsables de la santé conseillent aux personnes souffrant de problèmes respiratoires ou cardiaques de rester en intérieur. La ville ferme ses incinérateurs d'ordures, ce qui nécessite l'acheminement massif d'ordures aux sites d'enfouissement. Un front froid disperse le smog le 26 novembre et l'alerte prend fin.
